--- a/Authentican_and_Authorization_Function_Error_Test_Conditions.xlsx
+++ b/Authentican_and_Authorization_Function_Error_Test_Conditions.xlsx
@@ -67,13 +67,13 @@
     <t>HTTP_403_FORBIDDEN</t>
   </si>
   <si>
-    <t>"Token expired"</t>
-  </si>
-  <si>
-    <t>"Invalid Token"</t>
-  </si>
-  <si>
-    <t>"User is not logged in!"</t>
+    <t>Token expired</t>
+  </si>
+  <si>
+    <t>Invalid Token</t>
+  </si>
+  <si>
+    <t>User is not logged in!</t>
   </si>
   <si>
     <t>headers: {"WWW-Authenticate": "Bearer"}</t>
@@ -454,7 +454,7 @@
     <col min="1" max="1" width="59.7109375" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
